--- a/Dataset/time_slot.xlsx
+++ b/Dataset/time_slot.xlsx
@@ -59,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -144,10 +144,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,7 +433,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,5 +533,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>